--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2258.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2258.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.171656278196032</v>
+        <v>0.9568985104560852</v>
       </c>
       <c r="B1">
-        <v>2.276785564213921</v>
+        <v>2.820319652557373</v>
       </c>
       <c r="C1">
-        <v>6.414214052304394</v>
+        <v>5.421573638916016</v>
       </c>
       <c r="D1">
-        <v>2.531073098231146</v>
+        <v>2.091215133666992</v>
       </c>
       <c r="E1">
-        <v>1.205725772588561</v>
+        <v>1.178155183792114</v>
       </c>
     </row>
   </sheetData>
